--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H2">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I2">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J2">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>160.0382314757087</v>
+        <v>95.91458637997111</v>
       </c>
       <c r="R2">
-        <v>1440.344083281378</v>
+        <v>863.2312774197402</v>
       </c>
       <c r="S2">
-        <v>0.02116884545495769</v>
+        <v>0.01969373372633554</v>
       </c>
       <c r="T2">
-        <v>0.02315698751019251</v>
+        <v>0.02097514571613116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H3">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I3">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J3">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>54.15130260991334</v>
+        <v>39.2555280742089</v>
       </c>
       <c r="R3">
-        <v>487.36172348922</v>
+        <v>353.2997526678801</v>
       </c>
       <c r="S3">
-        <v>0.007162791950171583</v>
+        <v>0.008060170474150067</v>
       </c>
       <c r="T3">
-        <v>0.007835509219487679</v>
+        <v>0.008584621511667693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H4">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I4">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J4">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>49.35594779709734</v>
+        <v>25.44942038835178</v>
       </c>
       <c r="R4">
-        <v>444.2035301738759</v>
+        <v>229.044783495166</v>
       </c>
       <c r="S4">
-        <v>0.006528492733052343</v>
+        <v>0.005225421153694659</v>
       </c>
       <c r="T4">
-        <v>0.007141637695893786</v>
+        <v>0.005565423583458491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H5">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I5">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J5">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>35.1401498976625</v>
+        <v>9.989598644846668</v>
       </c>
       <c r="R5">
-        <v>210.840899385975</v>
+        <v>59.93759186908001</v>
       </c>
       <c r="S5">
-        <v>0.004648116863004537</v>
+        <v>0.002051121765413298</v>
       </c>
       <c r="T5">
-        <v>0.003389773409278464</v>
+        <v>0.00145638805753866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H6">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I6">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J6">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>63.76904571201599</v>
+        <v>54.50867236438934</v>
       </c>
       <c r="R6">
-        <v>573.921411408144</v>
+        <v>490.5780512795041</v>
       </c>
       <c r="S6">
-        <v>0.008434966201764704</v>
+        <v>0.01119203366073747</v>
       </c>
       <c r="T6">
-        <v>0.009227163918730193</v>
+        <v>0.01192026561118203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J7">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>1185.023903761803</v>
+        <v>979.706771266451</v>
       </c>
       <c r="R7">
-        <v>10665.21513385623</v>
+        <v>8817.360941398059</v>
       </c>
       <c r="S7">
-        <v>0.1567474699504654</v>
+        <v>0.2011590208685756</v>
       </c>
       <c r="T7">
-        <v>0.1714689264287256</v>
+        <v>0.2142478330145344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J8">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>400.9703645239689</v>
@@ -948,10 +948,10 @@
         <v>3608.73328071572</v>
       </c>
       <c r="S8">
-        <v>0.05303782477697717</v>
+        <v>0.08232953807259194</v>
       </c>
       <c r="T8">
-        <v>0.05801904730900658</v>
+        <v>0.08768647336310399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J9">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>365.4625360019529</v>
+        <v>259.9497158909838</v>
       </c>
       <c r="R9">
-        <v>3289.162824017576</v>
+        <v>2339.547443018854</v>
       </c>
       <c r="S9">
-        <v>0.04834107371010608</v>
+        <v>0.05337436859408318</v>
       </c>
       <c r="T9">
-        <v>0.0528811853492961</v>
+        <v>0.05684727814057348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J10">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>260.1998111733917</v>
+        <v>102.0374252130867</v>
       </c>
       <c r="R10">
-        <v>1561.19886704035</v>
+        <v>612.22455127852</v>
       </c>
       <c r="S10">
-        <v>0.03441758596897986</v>
+        <v>0.0209509101598652</v>
       </c>
       <c r="T10">
-        <v>0.02510001817247546</v>
+        <v>0.01487608189133754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J11">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>472.1861944612159</v>
+        <v>556.7715758745974</v>
       </c>
       <c r="R11">
-        <v>4249.675750150944</v>
+        <v>5010.944182871376</v>
       </c>
       <c r="S11">
-        <v>0.06245780451548705</v>
+        <v>0.1143195375751132</v>
       </c>
       <c r="T11">
-        <v>0.06832373556491959</v>
+        <v>0.1217579658666842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H12">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I12">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J12">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>582.0602848429087</v>
+        <v>436.5749405753844</v>
       </c>
       <c r="R12">
-        <v>5238.542563586178</v>
+        <v>3929.17446517846</v>
       </c>
       <c r="S12">
-        <v>0.07699125453769093</v>
+        <v>0.0896400741094972</v>
       </c>
       <c r="T12">
-        <v>0.08422214255930591</v>
+        <v>0.09547268398054834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H13">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I13">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J13">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>196.9487061379133</v>
+        <v>178.6795990378356</v>
       </c>
       <c r="R13">
-        <v>1772.53835524122</v>
+        <v>1608.11639134052</v>
       </c>
       <c r="S13">
-        <v>0.0260511296853476</v>
+        <v>0.03668752145621871</v>
       </c>
       <c r="T13">
-        <v>0.02849780759340923</v>
+        <v>0.03907466807468933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H14">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I14">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J14">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>179.5079636194973</v>
+        <v>115.8382641583571</v>
       </c>
       <c r="R14">
-        <v>1615.571672575476</v>
+        <v>1042.544377425214</v>
       </c>
       <c r="S14">
-        <v>0.02374417853006632</v>
+        <v>0.02378457767224424</v>
       </c>
       <c r="T14">
-        <v>0.02597419149903402</v>
+        <v>0.02533216856714307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H15">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I15">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J15">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>127.8049967826625</v>
+        <v>45.46971007588667</v>
       </c>
       <c r="R15">
-        <v>766.829980695975</v>
+        <v>272.81826045532</v>
       </c>
       <c r="S15">
-        <v>0.01690523695692175</v>
+        <v>0.009336102011645435</v>
       </c>
       <c r="T15">
-        <v>0.0123286320897455</v>
+        <v>0.006629049383122945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H16">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I16">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J16">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>231.928512137616</v>
+        <v>248.1074182403573</v>
       </c>
       <c r="R16">
-        <v>2087.356609238544</v>
+        <v>2232.966764163216</v>
       </c>
       <c r="S16">
-        <v>0.03067803727126716</v>
+        <v>0.0509428400284953</v>
       </c>
       <c r="T16">
-        <v>0.0335592664909166</v>
+        <v>0.05425753732835061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H17">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I17">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J17">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N17">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O17">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P17">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q17">
-        <v>554.0486085625553</v>
+        <v>292.5553437961233</v>
       </c>
       <c r="R17">
-        <v>3324.291651375332</v>
+        <v>1755.33206277674</v>
       </c>
       <c r="S17">
-        <v>0.07328604709666076</v>
+        <v>0.06006914337421905</v>
       </c>
       <c r="T17">
-        <v>0.05344596554717633</v>
+        <v>0.04265177451284188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H18">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I18">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J18">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>44.79778</v>
       </c>
       <c r="O18">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P18">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q18">
-        <v>187.4705411714467</v>
+        <v>119.7358498336467</v>
       </c>
       <c r="R18">
-        <v>1124.82324702868</v>
+        <v>718.4150990018801</v>
       </c>
       <c r="S18">
-        <v>0.02479741794708597</v>
+        <v>0.02458485234747092</v>
       </c>
       <c r="T18">
-        <v>0.01808423291695421</v>
+        <v>0.01745634313816238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H19">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I19">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J19">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N19">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O19">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P19">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q19">
-        <v>170.8691351379906</v>
+        <v>77.62493914774434</v>
       </c>
       <c r="R19">
-        <v>1025.214810827944</v>
+        <v>465.749634886466</v>
       </c>
       <c r="S19">
-        <v>0.02260148891552469</v>
+        <v>0.01593839831662877</v>
       </c>
       <c r="T19">
-        <v>0.0164827882762019</v>
+        <v>0.01131697462142387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H20">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I20">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J20">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N20">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O20">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P20">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q20">
-        <v>121.6543758072875</v>
+        <v>30.46992721577</v>
       </c>
       <c r="R20">
-        <v>486.61750322915</v>
+        <v>121.87970886308</v>
       </c>
       <c r="S20">
-        <v>0.0160916717001756</v>
+        <v>0.006256260448968634</v>
       </c>
       <c r="T20">
-        <v>0.007823544092913191</v>
+        <v>0.002961482884267286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H21">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I21">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J21">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N21">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O21">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P21">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q21">
-        <v>220.7669425006559</v>
+        <v>166.260461367784</v>
       </c>
       <c r="R21">
-        <v>1324.601655003936</v>
+        <v>997.562768206704</v>
       </c>
       <c r="S21">
-        <v>0.02920165540612878</v>
+        <v>0.03413755278497007</v>
       </c>
       <c r="T21">
-        <v>0.02129615023031563</v>
+        <v>0.02423918707703246</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H22">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I22">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J22">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N22">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O22">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P22">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q22">
-        <v>856.9079356984985</v>
+        <v>270.3119365856978</v>
       </c>
       <c r="R22">
-        <v>7712.171421286486</v>
+        <v>2432.80742927128</v>
       </c>
       <c r="S22">
-        <v>0.1133463641322584</v>
+        <v>0.05550199925879545</v>
       </c>
       <c r="T22">
-        <v>0.1239916623757924</v>
+        <v>0.05911334733002185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H23">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I23">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J23">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>44.79778</v>
       </c>
       <c r="O23">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P23">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q23">
-        <v>289.9474738440156</v>
+        <v>110.6321594652622</v>
       </c>
       <c r="R23">
-        <v>2609.52726459614</v>
+        <v>995.6894351873601</v>
       </c>
       <c r="S23">
-        <v>0.03835241871434317</v>
+        <v>0.0227156303572752</v>
       </c>
       <c r="T23">
-        <v>0.04195441282064447</v>
+        <v>0.0241936680671409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H24">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I24">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J24">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N24">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O24">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P24">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q24">
-        <v>264.2712491338236</v>
+        <v>71.72300241077244</v>
       </c>
       <c r="R24">
-        <v>2378.441242204412</v>
+        <v>645.5070216969519</v>
       </c>
       <c r="S24">
-        <v>0.03495613004166234</v>
+        <v>0.01472657877015076</v>
       </c>
       <c r="T24">
-        <v>0.03823915047713962</v>
+        <v>0.0156847929344616</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H25">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I25">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J25">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N25">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O25">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P25">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q25">
-        <v>188.1542493395542</v>
+        <v>28.15325444562667</v>
       </c>
       <c r="R25">
-        <v>1128.925496037325</v>
+        <v>168.91952667376</v>
       </c>
       <c r="S25">
-        <v>0.02488785454097671</v>
+        <v>0.005780587890829111</v>
       </c>
       <c r="T25">
-        <v>0.01815018641387175</v>
+        <v>0.004104475566354168</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H26">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I26">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J26">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N26">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O26">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P26">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q26">
-        <v>341.444671180592</v>
+        <v>153.6194372893653</v>
       </c>
       <c r="R26">
-        <v>3073.002040625328</v>
+        <v>1382.574935604288</v>
       </c>
       <c r="S26">
-        <v>0.04516414239892356</v>
+        <v>0.031542025122031</v>
       </c>
       <c r="T26">
-        <v>0.04940588203857334</v>
+        <v>0.03359436977822768</v>
       </c>
     </row>
   </sheetData>
